--- a/media/info_template/employee_info.xlsx
+++ b/media/info_template/employee_info.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="48">
   <si>
     <t>序号</t>
   </si>
@@ -83,6 +83,12 @@
   </si>
   <si>
     <t>入职日期(2016-01-01)</t>
+  </si>
+  <si>
+    <t>调出时间(2016-01-01)</t>
+  </si>
+  <si>
+    <t>转入时间(2016-01-01)</t>
   </si>
   <si>
     <t xml:space="preserve">#DIV/0!01+ </t>
@@ -1379,7 +1385,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:BP10"/>
+  <dimension ref="A1:BR10"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1413,32 +1419,32 @@
     <col min="26" max="26" width="29.8516" style="1" customWidth="1"/>
     <col min="27" max="27" width="29.8516" style="1" customWidth="1"/>
     <col min="28" max="28" width="29.8516" style="1" customWidth="1"/>
-    <col min="29" max="29" width="32.3516" style="1" customWidth="1"/>
+    <col min="29" max="29" width="29.8516" style="1" customWidth="1"/>
     <col min="30" max="30" width="29.8516" style="1" customWidth="1"/>
-    <col min="31" max="31" width="10.3516" style="1" customWidth="1"/>
-    <col min="32" max="32" width="10.3516" style="1" customWidth="1"/>
-    <col min="33" max="33" width="29.8516" style="1" customWidth="1"/>
-    <col min="34" max="34" width="29.8516" style="1" customWidth="1"/>
-    <col min="35" max="35" width="15" style="1" customWidth="1"/>
-    <col min="36" max="36" width="25.3516" style="1" customWidth="1"/>
-    <col min="37" max="37" width="10.3516" style="1" customWidth="1"/>
-    <col min="38" max="38" width="10.3516" style="1" customWidth="1"/>
-    <col min="39" max="39" width="29.8516" style="1" customWidth="1"/>
-    <col min="40" max="40" width="29.8516" style="1" customWidth="1"/>
-    <col min="41" max="41" width="32.3516" style="1" customWidth="1"/>
-    <col min="42" max="42" width="10.3516" style="1" customWidth="1"/>
-    <col min="43" max="43" width="12.6719" style="1" customWidth="1"/>
-    <col min="44" max="44" width="15" style="1" customWidth="1"/>
-    <col min="45" max="45" width="17.3516" style="1" customWidth="1"/>
-    <col min="46" max="46" width="10.3516" style="1" customWidth="1"/>
-    <col min="47" max="47" width="10.3516" style="1" customWidth="1"/>
-    <col min="48" max="48" width="7.17188" style="1" customWidth="1"/>
-    <col min="49" max="49" width="7.17188" style="1" customWidth="1"/>
+    <col min="31" max="31" width="32.3516" style="1" customWidth="1"/>
+    <col min="32" max="32" width="29.8516" style="1" customWidth="1"/>
+    <col min="33" max="33" width="10.3516" style="1" customWidth="1"/>
+    <col min="34" max="34" width="10.3516" style="1" customWidth="1"/>
+    <col min="35" max="35" width="29.8516" style="1" customWidth="1"/>
+    <col min="36" max="36" width="29.8516" style="1" customWidth="1"/>
+    <col min="37" max="37" width="15" style="1" customWidth="1"/>
+    <col min="38" max="38" width="25.3516" style="1" customWidth="1"/>
+    <col min="39" max="39" width="10.3516" style="1" customWidth="1"/>
+    <col min="40" max="40" width="10.3516" style="1" customWidth="1"/>
+    <col min="41" max="41" width="29.8516" style="1" customWidth="1"/>
+    <col min="42" max="42" width="29.8516" style="1" customWidth="1"/>
+    <col min="43" max="43" width="32.3516" style="1" customWidth="1"/>
+    <col min="44" max="44" width="10.3516" style="1" customWidth="1"/>
+    <col min="45" max="45" width="12.6719" style="1" customWidth="1"/>
+    <col min="46" max="46" width="15" style="1" customWidth="1"/>
+    <col min="47" max="47" width="17.3516" style="1" customWidth="1"/>
+    <col min="48" max="48" width="10.3516" style="1" customWidth="1"/>
+    <col min="49" max="49" width="10.3516" style="1" customWidth="1"/>
     <col min="50" max="50" width="7.17188" style="1" customWidth="1"/>
     <col min="51" max="51" width="7.17188" style="1" customWidth="1"/>
     <col min="52" max="52" width="7.17188" style="1" customWidth="1"/>
-    <col min="53" max="53" width="9" style="1" customWidth="1"/>
-    <col min="54" max="54" width="9" style="1" customWidth="1"/>
+    <col min="53" max="53" width="7.17188" style="1" customWidth="1"/>
+    <col min="54" max="54" width="7.17188" style="1" customWidth="1"/>
     <col min="55" max="55" width="9" style="1" customWidth="1"/>
     <col min="56" max="56" width="9" style="1" customWidth="1"/>
     <col min="57" max="57" width="9" style="1" customWidth="1"/>
@@ -1453,7 +1459,9 @@
     <col min="66" max="66" width="9" style="1" customWidth="1"/>
     <col min="67" max="67" width="9" style="1" customWidth="1"/>
     <col min="68" max="68" width="9" style="1" customWidth="1"/>
-    <col min="69" max="256" width="8.85156" style="1" customWidth="1"/>
+    <col min="69" max="69" width="9" style="1" customWidth="1"/>
+    <col min="70" max="70" width="9" style="1" customWidth="1"/>
+    <col min="71" max="256" width="8.85156" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
@@ -1536,13 +1544,13 @@
         <v>25</v>
       </c>
       <c r="AA1" t="s" s="3">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s" s="3">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s" s="3">
         <v>7</v>
-      </c>
-      <c r="AB1" t="s" s="3">
-        <v>26</v>
-      </c>
-      <c r="AC1" t="s" s="3">
-        <v>27</v>
       </c>
       <c r="AD1" t="s" s="3">
         <v>28</v>
@@ -1598,8 +1606,12 @@
       <c r="AU1" t="s" s="3">
         <v>45</v>
       </c>
-      <c r="AV1" s="4"/>
-      <c r="AW1" s="4"/>
+      <c r="AV1" t="s" s="3">
+        <v>46</v>
+      </c>
+      <c r="AW1" t="s" s="3">
+        <v>47</v>
+      </c>
       <c r="AX1" s="4"/>
       <c r="AY1" s="4"/>
       <c r="AZ1" s="4"/>
@@ -1618,7 +1630,9 @@
       <c r="BM1" s="4"/>
       <c r="BN1" s="4"/>
       <c r="BO1" s="4"/>
-      <c r="BP1" s="5"/>
+      <c r="BP1" s="4"/>
+      <c r="BQ1" s="4"/>
+      <c r="BR1" s="5"/>
     </row>
     <row r="2" ht="16" customHeight="1">
       <c r="A2" s="6"/>
@@ -1689,6 +1703,8 @@
       <c r="BN2" s="6"/>
       <c r="BO2" s="6"/>
       <c r="BP2" s="6"/>
+      <c r="BQ2" s="6"/>
+      <c r="BR2" s="6"/>
     </row>
     <row r="3" ht="16" customHeight="1">
       <c r="A3" s="7"/>
@@ -1759,6 +1775,8 @@
       <c r="BN3" s="7"/>
       <c r="BO3" s="7"/>
       <c r="BP3" s="7"/>
+      <c r="BQ3" s="7"/>
+      <c r="BR3" s="7"/>
     </row>
     <row r="4" ht="16" customHeight="1">
       <c r="A4" s="7"/>
@@ -1829,6 +1847,8 @@
       <c r="BN4" s="7"/>
       <c r="BO4" s="7"/>
       <c r="BP4" s="7"/>
+      <c r="BQ4" s="7"/>
+      <c r="BR4" s="7"/>
     </row>
     <row r="5" ht="16" customHeight="1">
       <c r="A5" s="7"/>
@@ -1899,6 +1919,8 @@
       <c r="BN5" s="7"/>
       <c r="BO5" s="7"/>
       <c r="BP5" s="7"/>
+      <c r="BQ5" s="7"/>
+      <c r="BR5" s="7"/>
     </row>
     <row r="6" ht="16" customHeight="1">
       <c r="A6" s="7"/>
@@ -1969,6 +1991,8 @@
       <c r="BN6" s="7"/>
       <c r="BO6" s="7"/>
       <c r="BP6" s="7"/>
+      <c r="BQ6" s="7"/>
+      <c r="BR6" s="7"/>
     </row>
     <row r="7" ht="16" customHeight="1">
       <c r="A7" s="7"/>
@@ -2039,6 +2063,8 @@
       <c r="BN7" s="7"/>
       <c r="BO7" s="7"/>
       <c r="BP7" s="7"/>
+      <c r="BQ7" s="7"/>
+      <c r="BR7" s="7"/>
     </row>
     <row r="8" ht="16" customHeight="1">
       <c r="A8" s="7"/>
@@ -2109,6 +2135,8 @@
       <c r="BN8" s="7"/>
       <c r="BO8" s="7"/>
       <c r="BP8" s="7"/>
+      <c r="BQ8" s="7"/>
+      <c r="BR8" s="7"/>
     </row>
     <row r="9" ht="16" customHeight="1">
       <c r="A9" s="7"/>
@@ -2179,6 +2207,8 @@
       <c r="BN9" s="7"/>
       <c r="BO9" s="7"/>
       <c r="BP9" s="7"/>
+      <c r="BQ9" s="7"/>
+      <c r="BR9" s="7"/>
     </row>
     <row r="10" ht="16" customHeight="1">
       <c r="A10" s="7"/>
@@ -2249,6 +2279,8 @@
       <c r="BN10" s="7"/>
       <c r="BO10" s="7"/>
       <c r="BP10" s="7"/>
+      <c r="BQ10" s="7"/>
+      <c r="BR10" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/media/info_template/employee_info.xlsx
+++ b/media/info_template/employee_info.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10412"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xuhuiliang/PycharmProjects/ace_office/media/info_template/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6C14F86-23A5-D94F-911A-091D54488D63}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="22620" windowHeight="16200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0" calcOnSave="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="54">
   <si>
     <t>序号</t>
   </si>
@@ -155,16 +164,31 @@
   </si>
   <si>
     <t>招聘人员</t>
+  </si>
+  <si>
+    <t>客服专员</t>
+  </si>
+  <si>
+    <t>客服主管</t>
+  </si>
+  <si>
+    <t>外包主管</t>
+  </si>
+  <si>
+    <t>客服经理</t>
+  </si>
+  <si>
+    <t>面试人员信息</t>
+  </si>
+  <si>
+    <t>其他负责人</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -173,17 +197,15 @@
     <font>
       <sz val="12"/>
       <color indexed="8"/>
-      <name val="Helvetica Neue"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color indexed="8"/>
-      <name val="等线"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="8"/>
+      <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="4">
@@ -275,62 +297,112 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="8">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffbdd6ee"/>
-      <rgbColor rgb="ffaaaaaa"/>
-      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFBDD6EE"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office 主题​​">
       <a:dk1>
@@ -532,7 +604,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -551,7 +623,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -581,7 +653,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -607,7 +679,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -633,7 +705,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -659,7 +731,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -685,7 +757,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -711,7 +783,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -737,7 +809,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -763,7 +835,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -789,7 +861,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -802,9 +874,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -821,7 +899,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -840,7 +918,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -866,7 +944,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -892,7 +970,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -918,7 +996,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -944,7 +1022,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -970,7 +1048,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -996,7 +1074,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1022,7 +1100,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1048,7 +1126,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1074,7 +1152,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1087,9 +1165,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1103,7 +1187,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1122,7 +1206,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1152,7 +1236,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1178,7 +1262,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1204,7 +1288,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1230,7 +1314,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1256,7 +1340,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1282,7 +1366,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1308,7 +1392,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1334,7 +1418,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1360,7 +1444,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1373,251 +1457,240 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:BR10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:IV10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="AS1" workbookViewId="0">
+      <selection activeCell="BB11" sqref="BB11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="13.5" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.5" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="6" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.6719" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.6719" style="1" customWidth="1"/>
-    <col min="5" max="5" width="23.3516" style="1" customWidth="1"/>
-    <col min="6" max="6" width="19.6719" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.3516" style="1" customWidth="1"/>
-    <col min="8" max="8" width="10.3516" style="1" customWidth="1"/>
-    <col min="9" max="9" width="6" style="1" customWidth="1"/>
-    <col min="10" max="10" width="6" style="1" customWidth="1"/>
-    <col min="11" max="11" width="14" style="1" customWidth="1"/>
-    <col min="12" max="12" width="6" style="1" customWidth="1"/>
-    <col min="13" max="13" width="6" style="1" customWidth="1"/>
-    <col min="14" max="14" width="25.3516" style="1" customWidth="1"/>
-    <col min="15" max="15" width="10.3516" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.6719" style="1" customWidth="1"/>
-    <col min="17" max="17" width="10.3516" style="1" customWidth="1"/>
-    <col min="18" max="18" width="10.3516" style="1" customWidth="1"/>
-    <col min="19" max="19" width="8.17188" style="1" customWidth="1"/>
-    <col min="20" max="20" width="8.17188" style="1" customWidth="1"/>
-    <col min="21" max="21" width="10.3516" style="1" customWidth="1"/>
-    <col min="22" max="22" width="10.3516" style="1" customWidth="1"/>
-    <col min="23" max="23" width="10.3516" style="1" customWidth="1"/>
-    <col min="24" max="24" width="25.3516" style="1" customWidth="1"/>
-    <col min="25" max="25" width="29.8516" style="1" customWidth="1"/>
-    <col min="26" max="26" width="29.8516" style="1" customWidth="1"/>
-    <col min="27" max="27" width="29.8516" style="1" customWidth="1"/>
-    <col min="28" max="28" width="29.8516" style="1" customWidth="1"/>
-    <col min="29" max="29" width="29.8516" style="1" customWidth="1"/>
-    <col min="30" max="30" width="29.8516" style="1" customWidth="1"/>
-    <col min="31" max="31" width="32.3516" style="1" customWidth="1"/>
-    <col min="32" max="32" width="29.8516" style="1" customWidth="1"/>
-    <col min="33" max="33" width="10.3516" style="1" customWidth="1"/>
-    <col min="34" max="34" width="10.3516" style="1" customWidth="1"/>
-    <col min="35" max="35" width="29.8516" style="1" customWidth="1"/>
-    <col min="36" max="36" width="29.8516" style="1" customWidth="1"/>
-    <col min="37" max="37" width="15" style="1" customWidth="1"/>
-    <col min="38" max="38" width="25.3516" style="1" customWidth="1"/>
-    <col min="39" max="39" width="10.3516" style="1" customWidth="1"/>
-    <col min="40" max="40" width="10.3516" style="1" customWidth="1"/>
-    <col min="41" max="41" width="29.8516" style="1" customWidth="1"/>
-    <col min="42" max="42" width="29.8516" style="1" customWidth="1"/>
-    <col min="43" max="43" width="32.3516" style="1" customWidth="1"/>
-    <col min="44" max="44" width="10.3516" style="1" customWidth="1"/>
-    <col min="45" max="45" width="12.6719" style="1" customWidth="1"/>
-    <col min="46" max="46" width="15" style="1" customWidth="1"/>
-    <col min="47" max="47" width="17.3516" style="1" customWidth="1"/>
-    <col min="48" max="48" width="10.3516" style="1" customWidth="1"/>
-    <col min="49" max="49" width="10.3516" style="1" customWidth="1"/>
-    <col min="50" max="50" width="7.17188" style="1" customWidth="1"/>
-    <col min="51" max="51" width="7.17188" style="1" customWidth="1"/>
-    <col min="52" max="52" width="7.17188" style="1" customWidth="1"/>
-    <col min="53" max="53" width="7.17188" style="1" customWidth="1"/>
-    <col min="54" max="54" width="7.17188" style="1" customWidth="1"/>
-    <col min="55" max="55" width="9" style="1" customWidth="1"/>
-    <col min="56" max="56" width="9" style="1" customWidth="1"/>
-    <col min="57" max="57" width="9" style="1" customWidth="1"/>
-    <col min="58" max="58" width="9" style="1" customWidth="1"/>
-    <col min="59" max="59" width="9" style="1" customWidth="1"/>
-    <col min="60" max="60" width="9" style="1" customWidth="1"/>
-    <col min="61" max="61" width="9" style="1" customWidth="1"/>
-    <col min="62" max="62" width="9" style="1" customWidth="1"/>
-    <col min="63" max="63" width="9" style="1" customWidth="1"/>
-    <col min="64" max="64" width="9" style="1" customWidth="1"/>
-    <col min="65" max="65" width="9" style="1" customWidth="1"/>
-    <col min="66" max="66" width="9" style="1" customWidth="1"/>
-    <col min="67" max="67" width="9" style="1" customWidth="1"/>
-    <col min="68" max="68" width="9" style="1" customWidth="1"/>
-    <col min="69" max="69" width="9" style="1" customWidth="1"/>
-    <col min="70" max="70" width="9" style="1" customWidth="1"/>
-    <col min="71" max="256" width="8.85156" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="6" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="6" style="1" customWidth="1"/>
+    <col min="14" max="14" width="23.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="23" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="26" width="23.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="29.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="27.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="34" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="35" max="36" width="27.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="14.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="23.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="39" max="40" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="41" max="42" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="29.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="14.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="48" max="53" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="14.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="56" max="70" width="9" style="1" customWidth="1"/>
+    <col min="71" max="256" width="8.83203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:70" ht="14.25" customHeight="1">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="3">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="3">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="3">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="3">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s" s="3">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s" s="3">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s" s="3">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s" s="3">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s" s="3">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s" s="3">
+      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s" s="3">
+      <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s" s="3">
+      <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s" s="3">
+      <c r="N1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s" s="3">
+      <c r="O1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s" s="3">
+      <c r="P1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s" s="3">
+      <c r="Q1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s" s="3">
+      <c r="R1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s" s="3">
+      <c r="S1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s" s="3">
+      <c r="T1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s" s="3">
+      <c r="U1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s" s="3">
+      <c r="V1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s" s="3">
+      <c r="W1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="X1" t="s" s="3">
+      <c r="X1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" t="s" s="3">
+      <c r="Y1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" t="s" s="3">
+      <c r="Z1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" t="s" s="3">
+      <c r="AA1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" t="s" s="3">
+      <c r="AB1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" t="s" s="3">
+      <c r="AC1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="AD1" t="s" s="3">
+      <c r="AD1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="AE1" t="s" s="3">
+      <c r="AE1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="AF1" t="s" s="3">
+      <c r="AF1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="AG1" t="s" s="3">
+      <c r="AG1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="AH1" t="s" s="3">
+      <c r="AH1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="AI1" t="s" s="3">
+      <c r="AI1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="AJ1" t="s" s="3">
+      <c r="AJ1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="AK1" t="s" s="3">
+      <c r="AK1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AL1" t="s" s="3">
+      <c r="AL1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="AM1" t="s" s="3">
+      <c r="AM1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="AN1" t="s" s="3">
+      <c r="AN1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AO1" t="s" s="3">
+      <c r="AO1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="AP1" t="s" s="3">
+      <c r="AP1" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="AQ1" t="s" s="3">
+      <c r="AQ1" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AR1" t="s" s="3">
+      <c r="AR1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="AS1" t="s" s="3">
+      <c r="AS1" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="AT1" t="s" s="3">
+      <c r="AT1" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="AU1" t="s" s="3">
+      <c r="AU1" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="AV1" t="s" s="3">
+      <c r="AV1" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="AW1" t="s" s="3">
+      <c r="AW1" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="AX1" s="4"/>
-      <c r="AY1" s="4"/>
-      <c r="AZ1" s="4"/>
-      <c r="BA1" s="4"/>
-      <c r="BB1" s="4"/>
-      <c r="BC1" s="4"/>
+      <c r="AX1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AY1" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AZ1" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="BA1" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="BB1" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" s="3" t="s">
+        <v>52</v>
+      </c>
       <c r="BD1" s="4"/>
       <c r="BE1" s="4"/>
       <c r="BF1" s="4"/>
@@ -1634,7 +1707,7 @@
       <c r="BQ1" s="4"/>
       <c r="BR1" s="5"/>
     </row>
-    <row r="2" ht="16" customHeight="1">
+    <row r="2" spans="1:70" ht="16" customHeight="1">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -1706,7 +1779,7 @@
       <c r="BQ2" s="6"/>
       <c r="BR2" s="6"/>
     </row>
-    <row r="3" ht="16" customHeight="1">
+    <row r="3" spans="1:70" ht="16" customHeight="1">
       <c r="A3" s="7"/>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
@@ -1778,7 +1851,7 @@
       <c r="BQ3" s="7"/>
       <c r="BR3" s="7"/>
     </row>
-    <row r="4" ht="16" customHeight="1">
+    <row r="4" spans="1:70" ht="16" customHeight="1">
       <c r="A4" s="7"/>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
@@ -1850,7 +1923,7 @@
       <c r="BQ4" s="7"/>
       <c r="BR4" s="7"/>
     </row>
-    <row r="5" ht="16" customHeight="1">
+    <row r="5" spans="1:70" ht="16" customHeight="1">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
@@ -1922,7 +1995,7 @@
       <c r="BQ5" s="7"/>
       <c r="BR5" s="7"/>
     </row>
-    <row r="6" ht="16" customHeight="1">
+    <row r="6" spans="1:70" ht="16" customHeight="1">
       <c r="A6" s="7"/>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
@@ -1994,7 +2067,7 @@
       <c r="BQ6" s="7"/>
       <c r="BR6" s="7"/>
     </row>
-    <row r="7" ht="16" customHeight="1">
+    <row r="7" spans="1:70" ht="16" customHeight="1">
       <c r="A7" s="7"/>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
@@ -2066,7 +2139,7 @@
       <c r="BQ7" s="7"/>
       <c r="BR7" s="7"/>
     </row>
-    <row r="8" ht="16" customHeight="1">
+    <row r="8" spans="1:70" ht="16" customHeight="1">
       <c r="A8" s="7"/>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
@@ -2138,7 +2211,7 @@
       <c r="BQ8" s="7"/>
       <c r="BR8" s="7"/>
     </row>
-    <row r="9" ht="16" customHeight="1">
+    <row r="9" spans="1:70" ht="16" customHeight="1">
       <c r="A9" s="7"/>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
@@ -2210,7 +2283,7 @@
       <c r="BQ9" s="7"/>
       <c r="BR9" s="7"/>
     </row>
-    <row r="10" ht="16" customHeight="1">
+    <row r="10" spans="1:70" ht="16" customHeight="1">
       <c r="A10" s="7"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
@@ -2283,8 +2356,9 @@
       <c r="BR10" s="7"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/media/info_template/employee_info.xlsx
+++ b/media/info_template/employee_info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xuhuiliang/PycharmProjects/ace_office/media/info_template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6C14F86-23A5-D94F-911A-091D54488D63}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A57885E6-7159-1145-8C88-6477942C1CAA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="22620" windowHeight="16200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1479,7 +1479,7 @@
   <dimension ref="A1:IV10"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="AS1" workbookViewId="0">
-      <selection activeCell="BB11" sqref="BB11"/>
+      <selection activeCell="BA14" sqref="BA14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.5" customHeight="1"/>

--- a/media/info_template/employee_info.xlsx
+++ b/media/info_template/employee_info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xuhuiliang/PycharmProjects/ace_office/media/info_template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A57885E6-7159-1145-8C88-6477942C1CAA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1143D9E-70DA-BF41-8216-1940E24A2B19}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="22620" windowHeight="16200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="53">
   <si>
     <t>序号</t>
   </si>
@@ -176,9 +176,6 @@
   </si>
   <si>
     <t>客服经理</t>
-  </si>
-  <si>
-    <t>面试人员信息</t>
   </si>
   <si>
     <t>其他负责人</t>
@@ -1479,7 +1476,7 @@
   <dimension ref="A1:IV10"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="AS1" workbookViewId="0">
-      <selection activeCell="BA14" sqref="BA14"/>
+      <selection activeCell="BC1" sqref="BC1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.5" customHeight="1"/>
@@ -1686,11 +1683,9 @@
         <v>51</v>
       </c>
       <c r="BB1" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="BC1" s="3" t="s">
         <v>52</v>
       </c>
+      <c r="BC1" s="3"/>
       <c r="BD1" s="4"/>
       <c r="BE1" s="4"/>
       <c r="BF1" s="4"/>

--- a/media/info_template/employee_info.xlsx
+++ b/media/info_template/employee_info.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10412"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xuhuiliang/PycharmProjects/ace_office/media/info_template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1143D9E-70DA-BF41-8216-1940E24A2B19}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5558BC97-109F-CD40-BA93-AE6CC34C0C67}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="22620" windowHeight="16200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="54">
   <si>
     <t>序号</t>
   </si>
@@ -179,6 +179,10 @@
   </si>
   <si>
     <t>其他负责人</t>
+  </si>
+  <si>
+    <t>开户地</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1473,10 +1477,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:IV10"/>
+  <dimension ref="A1:IW10"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="AS1" workbookViewId="0">
-      <selection activeCell="BC1" sqref="BC1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.5" customHeight="1"/>
@@ -1487,42 +1491,44 @@
     <col min="4" max="4" width="18.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="6" style="1" customWidth="1"/>
-    <col min="11" max="11" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="6" style="1" customWidth="1"/>
-    <col min="14" max="14" width="23.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="23" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="26" width="23.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="29.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="27.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="33" max="34" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="35" max="36" width="27.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="14.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="23.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="39" max="40" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="41" max="42" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="29.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="14.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="48" max="53" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="14.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="56" max="70" width="9" style="1" customWidth="1"/>
-    <col min="71" max="256" width="8.83203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.1640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10" style="1" customWidth="1"/>
+    <col min="10" max="11" width="6" style="1" customWidth="1"/>
+    <col min="12" max="12" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="6" style="1" customWidth="1"/>
+    <col min="15" max="15" width="23.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="24" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="27" width="23.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="29.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="27.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="34" max="35" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="36" max="37" width="27.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="14.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="23.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="40" max="41" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="42" max="43" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="29.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="14.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="49" max="54" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="14.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="57" max="71" width="9" style="1" customWidth="1"/>
+    <col min="72" max="257" width="8.83203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:70" ht="14.25" customHeight="1">
+    <row r="1" spans="1:71" ht="14.25" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1548,145 +1554,147 @@
         <v>7</v>
       </c>
       <c r="I1" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="V1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="W1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="X1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="Y1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="Z1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="AA1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AB1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AC1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="3" t="s">
+      <c r="AD1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="AD1" s="3" t="s">
+      <c r="AE1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="AE1" s="3" t="s">
+      <c r="AF1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="AF1" s="3" t="s">
+      <c r="AG1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="AG1" s="3" t="s">
+      <c r="AH1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="AH1" s="3" t="s">
+      <c r="AI1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="AI1" s="3" t="s">
+      <c r="AJ1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="AJ1" s="3" t="s">
+      <c r="AK1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="AK1" s="3" t="s">
+      <c r="AL1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AL1" s="3" t="s">
+      <c r="AM1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="AM1" s="3" t="s">
+      <c r="AN1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="AN1" s="3" t="s">
+      <c r="AO1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AO1" s="3" t="s">
+      <c r="AP1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="AP1" s="3" t="s">
+      <c r="AQ1" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="AQ1" s="3" t="s">
+      <c r="AR1" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AR1" s="3" t="s">
+      <c r="AS1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="AS1" s="3" t="s">
+      <c r="AT1" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="AT1" s="3" t="s">
+      <c r="AU1" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="AU1" s="3" t="s">
+      <c r="AV1" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="AV1" s="3" t="s">
+      <c r="AW1" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="AW1" s="3" t="s">
+      <c r="AX1" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="AX1" s="3" t="s">
+      <c r="AY1" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="AY1" s="3" t="s">
+      <c r="AZ1" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="AZ1" s="3" t="s">
+      <c r="BA1" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="BA1" s="3" t="s">
+      <c r="BB1" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="BB1" s="3" t="s">
+      <c r="BC1" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="BC1" s="3"/>
-      <c r="BD1" s="4"/>
+      <c r="BD1" s="3"/>
       <c r="BE1" s="4"/>
       <c r="BF1" s="4"/>
       <c r="BG1" s="4"/>
@@ -1700,9 +1708,10 @@
       <c r="BO1" s="4"/>
       <c r="BP1" s="4"/>
       <c r="BQ1" s="4"/>
-      <c r="BR1" s="5"/>
+      <c r="BR1" s="4"/>
+      <c r="BS1" s="5"/>
     </row>
-    <row r="2" spans="1:70" ht="16" customHeight="1">
+    <row r="2" spans="1:71" ht="16" customHeight="1">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -1773,8 +1782,9 @@
       <c r="BP2" s="6"/>
       <c r="BQ2" s="6"/>
       <c r="BR2" s="6"/>
+      <c r="BS2" s="6"/>
     </row>
-    <row r="3" spans="1:70" ht="16" customHeight="1">
+    <row r="3" spans="1:71" ht="16" customHeight="1">
       <c r="A3" s="7"/>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
@@ -1845,8 +1855,9 @@
       <c r="BP3" s="7"/>
       <c r="BQ3" s="7"/>
       <c r="BR3" s="7"/>
+      <c r="BS3" s="7"/>
     </row>
-    <row r="4" spans="1:70" ht="16" customHeight="1">
+    <row r="4" spans="1:71" ht="16" customHeight="1">
       <c r="A4" s="7"/>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
@@ -1917,8 +1928,9 @@
       <c r="BP4" s="7"/>
       <c r="BQ4" s="7"/>
       <c r="BR4" s="7"/>
+      <c r="BS4" s="7"/>
     </row>
-    <row r="5" spans="1:70" ht="16" customHeight="1">
+    <row r="5" spans="1:71" ht="16" customHeight="1">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
@@ -1989,8 +2001,9 @@
       <c r="BP5" s="7"/>
       <c r="BQ5" s="7"/>
       <c r="BR5" s="7"/>
+      <c r="BS5" s="7"/>
     </row>
-    <row r="6" spans="1:70" ht="16" customHeight="1">
+    <row r="6" spans="1:71" ht="16" customHeight="1">
       <c r="A6" s="7"/>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
@@ -2061,8 +2074,9 @@
       <c r="BP6" s="7"/>
       <c r="BQ6" s="7"/>
       <c r="BR6" s="7"/>
+      <c r="BS6" s="7"/>
     </row>
-    <row r="7" spans="1:70" ht="16" customHeight="1">
+    <row r="7" spans="1:71" ht="16" customHeight="1">
       <c r="A7" s="7"/>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
@@ -2133,8 +2147,9 @@
       <c r="BP7" s="7"/>
       <c r="BQ7" s="7"/>
       <c r="BR7" s="7"/>
+      <c r="BS7" s="7"/>
     </row>
-    <row r="8" spans="1:70" ht="16" customHeight="1">
+    <row r="8" spans="1:71" ht="16" customHeight="1">
       <c r="A8" s="7"/>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
@@ -2205,8 +2220,9 @@
       <c r="BP8" s="7"/>
       <c r="BQ8" s="7"/>
       <c r="BR8" s="7"/>
+      <c r="BS8" s="7"/>
     </row>
-    <row r="9" spans="1:70" ht="16" customHeight="1">
+    <row r="9" spans="1:71" ht="16" customHeight="1">
       <c r="A9" s="7"/>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
@@ -2277,8 +2293,9 @@
       <c r="BP9" s="7"/>
       <c r="BQ9" s="7"/>
       <c r="BR9" s="7"/>
+      <c r="BS9" s="7"/>
     </row>
-    <row r="10" spans="1:70" ht="16" customHeight="1">
+    <row r="10" spans="1:71" ht="16" customHeight="1">
       <c r="A10" s="7"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
@@ -2349,6 +2366,7 @@
       <c r="BP10" s="7"/>
       <c r="BQ10" s="7"/>
       <c r="BR10" s="7"/>
+      <c r="BS10" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
